--- a/Results/Categorization/lda2vec-partial-ner-w2v.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-w2v.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="1810">
   <si>
     <t>id</t>
   </si>
@@ -4039,46 +4039,46 @@
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
+    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
     <t>AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE</t>
+    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
@@ -4192,7 +4192,7 @@
     <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+    <t>SERVICE|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES|PRICES|PRICES</t>
@@ -4210,7 +4210,7 @@
     <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
+    <t>AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|PRICES|PRICES</t>
@@ -4219,9 +4219,6 @@
     <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
@@ -4252,7 +4249,7 @@
     <t>FOOD|SERVICE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|FOOD|SERVICE|FOOD</t>
@@ -4276,7 +4273,7 @@
     <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|FOOD|PRICES</t>
@@ -4288,58 +4285,55 @@
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE</t>
+    <t>PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|PRICES</t>
@@ -4351,6 +4345,9 @@
     <t>PRICES|PRICES|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
     <t>PRICES|FOOD|PRICES|SERVICE|PRICES</t>
   </si>
   <si>
@@ -4381,67 +4378,64 @@
     <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>PRICES||FOOD|PRICES</t>
+    <t>PRICES||PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|||SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE||FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|||SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE||FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|PRICES</t>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|PRICES</t>
@@ -4474,18 +4468,12 @@
     <t>service|price</t>
   </si>
   <si>
-    <t>service|decor|always|thing|excellent</t>
+    <t>service|decor|always|excellent</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>food|thing</t>
-  </si>
-  <si>
-    <t>thing|special</t>
-  </si>
-  <si>
     <t>never|though</t>
   </si>
   <si>
@@ -4549,7 +4537,7 @@
     <t>ambience|would|best|nice</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|reasonable|food|great|great|great|price</t>
@@ -4627,6 +4615,9 @@
     <t>service|pizza|great</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>best|sushi</t>
   </si>
   <si>
@@ -4777,13 +4768,10 @@
     <t>really</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>service|good|restaurant|thing</t>
-  </si>
-  <si>
-    <t>delicious|thing</t>
+    <t>service|good|restaurant</t>
+  </si>
+  <si>
+    <t>delicious</t>
   </si>
   <si>
     <t>service|though|reasonable|price</t>
@@ -4792,7 +4780,7 @@
     <t>delicious|restaurant|food|fresh|fresh</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
   </si>
   <si>
     <t>delicious|fresh</t>
@@ -4822,7 +4810,7 @@
     <t>service|food|great|price</t>
   </si>
   <si>
-    <t>atmosphere|thing|wait</t>
+    <t>atmosphere|wait</t>
   </si>
   <si>
     <t>dish|reasonable|price</t>
@@ -4837,9 +4825,6 @@
     <t>dish|fresh</t>
   </si>
   <si>
-    <t>delicious</t>
-  </si>
-  <si>
     <t>place|delicious|food|staff</t>
   </si>
   <si>
@@ -4858,7 +4843,7 @@
     <t>delicious|though</t>
   </si>
   <si>
-    <t>beer</t>
+    <t>bombay|beer</t>
   </si>
   <si>
     <t>place|nice</t>
@@ -4882,7 +4867,7 @@
     <t>ambience|like</t>
   </si>
   <si>
-    <t>dish|menu|thing</t>
+    <t>dish|menu</t>
   </si>
   <si>
     <t>place|good|meal</t>
@@ -4927,7 +4912,7 @@
     <t>service|place</t>
   </si>
   <si>
-    <t>service|atmosphere|restaurant|food|thing|great|great</t>
+    <t>service|atmosphere|restaurant|food|great|great</t>
   </si>
   <si>
     <t>service|menu|staff|meal</t>
@@ -4960,7 +4945,7 @@
     <t>service|ambience|nice|great</t>
   </si>
   <si>
-    <t>atmosphere|sushi|feel|like|thing|special</t>
+    <t>atmosphere|sushi|feel|like|special</t>
   </si>
   <si>
     <t>well|staff</t>
@@ -4981,7 +4966,7 @@
     <t>service|always|great</t>
   </si>
   <si>
-    <t>rude|thing|wait</t>
+    <t>rude|wait</t>
   </si>
   <si>
     <t>make|service|place|worth|feel|like|food|price|price</t>
@@ -5002,9 +4987,6 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|thing</t>
-  </si>
-  <si>
     <t>seats|wall|benches</t>
   </si>
   <si>
@@ -5044,15 +5026,12 @@
     <t>make|feel|like|wait|staff</t>
   </si>
   <si>
-    <t>service|thing|thing|wait</t>
+    <t>service|wait</t>
   </si>
   <si>
     <t>good|wait|wait</t>
   </si>
   <si>
-    <t>dinner|thing|thing</t>
-  </si>
-  <si>
     <t>place|would|good|great|staff</t>
   </si>
   <si>
@@ -5062,7 +5041,7 @@
     <t>service|restaurant|back</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
+    <t>gentleman|manager|table|smile|order</t>
   </si>
   <si>
     <t>food|great|price</t>
@@ -5101,13 +5080,10 @@
     <t>place|great</t>
   </si>
   <si>
-    <t>service|thing</t>
-  </si>
-  <si>
     <t>place|worth|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|well</t>
@@ -5179,16 +5155,13 @@
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>thing|wait</t>
-  </si>
-  <si>
     <t>place|decor|food|great|great|price</t>
   </si>
   <si>
     <t>good|reasonable|food|wine|great|price</t>
   </si>
   <si>
-    <t>overpriced|good|thing|price</t>
+    <t>overpriced|good|price</t>
   </si>
   <si>
     <t>would|food|price</t>
@@ -5203,7 +5176,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>reasonable|food|great|price</t>
@@ -5212,7 +5185,7 @@
     <t>good|food|price</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|good|food|great|price</t>
@@ -5248,7 +5221,7 @@
     <t>place|dinner|great</t>
   </si>
   <si>
-    <t>make|atmosphere|back|thing</t>
+    <t>make|atmosphere|back</t>
   </si>
   <si>
     <t>food|excellent|great|price</t>
@@ -5299,9 +5272,6 @@
     <t>service|dish|price</t>
   </si>
   <si>
-    <t>decor|thing</t>
-  </si>
-  <si>
     <t>dinner|wine</t>
   </si>
   <si>
@@ -5314,7 +5284,7 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
     <t>drinks</t>
@@ -5338,9 +5308,6 @@
     <t>place|would|feel|restaurant|price</t>
   </si>
   <si>
-    <t>place|food|thing</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -5353,7 +5320,7 @@
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>good|reasonable|thing|great|price</t>
+    <t>good|reasonable|great|price</t>
   </si>
   <si>
     <t>service|rude|well</t>
@@ -5883,10 +5850,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="H2" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5912,7 +5879,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5935,10 +5902,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H4" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5961,10 +5928,10 @@
         <v>1285</v>
       </c>
       <c r="G5" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H5" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5987,10 +5954,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H6" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6013,10 +5980,10 @@
         <v>1276</v>
       </c>
       <c r="G7" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H7" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6039,10 +6006,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H8" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6065,10 +6032,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="H9" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6091,10 +6058,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H10" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6117,10 +6084,10 @@
         <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H11" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6140,13 +6107,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G12" t="s">
-        <v>1488</v>
+        <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6166,13 +6133,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1343</v>
+        <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H13" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6195,10 +6162,10 @@
         <v>1342</v>
       </c>
       <c r="G14" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H14" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6218,13 +6185,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H15" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6244,13 +6211,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H16" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6273,10 +6240,10 @@
         <v>1342</v>
       </c>
       <c r="G17" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="H17" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6296,13 +6263,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G18" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H18" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6325,7 +6292,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6345,13 +6312,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G20" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H20" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6377,7 +6344,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6403,7 +6370,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6423,13 +6390,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G23" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="H23" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6452,10 +6419,10 @@
         <v>1342</v>
       </c>
       <c r="G24" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H24" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6481,7 +6448,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6501,13 +6468,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G26" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="H26" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6530,10 +6497,10 @@
         <v>1339</v>
       </c>
       <c r="G27" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="H27" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6553,10 +6520,10 @@
         <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H28" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6576,13 +6543,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G29" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H29" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6602,13 +6569,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G30" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H30" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6628,13 +6595,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="H31" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6657,10 +6624,10 @@
         <v>1339</v>
       </c>
       <c r="G32" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="H32" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6683,10 +6650,10 @@
         <v>1342</v>
       </c>
       <c r="G33" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H33" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6706,13 +6673,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G34" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H34" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6735,10 +6702,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H35" t="s">
-        <v>1794</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6758,13 +6725,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G36" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="H36" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6787,10 +6754,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H37" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6810,13 +6777,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="G38" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="H38" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6839,10 +6806,10 @@
         <v>1353</v>
       </c>
       <c r="G39" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="H39" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6865,10 +6832,10 @@
         <v>1354</v>
       </c>
       <c r="G40" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="H40" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6891,10 +6858,10 @@
         <v>1355</v>
       </c>
       <c r="G41" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="H41" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6914,13 +6881,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G42" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="H42" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6943,10 +6910,10 @@
         <v>1356</v>
       </c>
       <c r="G43" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="H43" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6972,7 +6939,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6998,7 +6965,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7018,13 +6985,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="G46" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="H46" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7050,7 +7017,7 @@
         <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7073,10 +7040,10 @@
         <v>1357</v>
       </c>
       <c r="G48" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="H48" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7099,10 +7066,10 @@
         <v>1358</v>
       </c>
       <c r="G49" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="H49" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7122,13 +7089,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G50" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H50" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7151,10 +7118,10 @@
         <v>1359</v>
       </c>
       <c r="G51" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="H51" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7177,10 +7144,10 @@
         <v>1360</v>
       </c>
       <c r="G52" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H52" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7203,10 +7170,10 @@
         <v>1361</v>
       </c>
       <c r="G53" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="H53" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7229,10 +7196,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H54" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7255,10 +7222,10 @@
         <v>1362</v>
       </c>
       <c r="G55" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H55" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7281,10 +7248,10 @@
         <v>1363</v>
       </c>
       <c r="G56" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="H56" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7307,10 +7274,10 @@
         <v>1364</v>
       </c>
       <c r="G57" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="H57" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7333,10 +7300,10 @@
         <v>1357</v>
       </c>
       <c r="G58" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H58" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7359,10 +7326,10 @@
         <v>1365</v>
       </c>
       <c r="G59" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="H59" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7385,10 +7352,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H60" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7414,7 +7381,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7437,10 +7404,10 @@
         <v>1366</v>
       </c>
       <c r="G62" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="H62" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7463,10 +7430,10 @@
         <v>1367</v>
       </c>
       <c r="G63" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="H63" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7489,10 +7456,10 @@
         <v>1368</v>
       </c>
       <c r="G64" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H64" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7512,13 +7479,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G65" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H65" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7541,10 +7508,10 @@
         <v>1369</v>
       </c>
       <c r="G66" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="H66" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7567,10 +7534,10 @@
         <v>1342</v>
       </c>
       <c r="G67" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="H67" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7596,7 +7563,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7619,10 +7586,10 @@
         <v>1278</v>
       </c>
       <c r="G69" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="H69" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7645,10 +7612,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H70" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7674,7 +7641,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7697,10 +7664,10 @@
         <v>1370</v>
       </c>
       <c r="G72" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="H72" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7723,10 +7690,10 @@
         <v>1371</v>
       </c>
       <c r="G73" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="H73" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7749,10 +7716,10 @@
         <v>1372</v>
       </c>
       <c r="G74" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="H74" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7778,7 +7745,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7798,13 +7765,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1361</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1533</v>
       </c>
       <c r="H76" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7824,13 +7791,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G77" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="H77" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7850,13 +7817,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="G78" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H78" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7879,10 +7846,10 @@
         <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="H79" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7905,10 +7872,10 @@
         <v>1373</v>
       </c>
       <c r="G80" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="H80" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7931,10 +7898,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="H81" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7957,10 +7924,10 @@
         <v>1374</v>
       </c>
       <c r="G82" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="H82" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7986,7 +7953,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8012,7 +7979,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8035,10 +8002,10 @@
         <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="H85" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8061,10 +8028,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="H86" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8087,10 +8054,10 @@
         <v>1342</v>
       </c>
       <c r="G87" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="H87" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8113,10 +8080,10 @@
         <v>1375</v>
       </c>
       <c r="G88" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H88" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8139,10 +8106,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H89" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8168,7 +8135,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8191,10 +8158,10 @@
         <v>1376</v>
       </c>
       <c r="G91" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="H91" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8217,10 +8184,10 @@
         <v>1358</v>
       </c>
       <c r="G92" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="H92" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8243,10 +8210,10 @@
         <v>1377</v>
       </c>
       <c r="G93" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H93" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8269,10 +8236,10 @@
         <v>1378</v>
       </c>
       <c r="G94" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="H94" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8295,10 +8262,10 @@
         <v>1379</v>
       </c>
       <c r="G95" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="H95" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8321,10 +8288,10 @@
         <v>1294</v>
       </c>
       <c r="G96" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H96" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8347,10 +8314,10 @@
         <v>1276</v>
       </c>
       <c r="G97" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="H97" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8373,10 +8340,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H98" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8399,10 +8366,10 @@
         <v>1380</v>
       </c>
       <c r="G99" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="H99" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8425,10 +8392,10 @@
         <v>1381</v>
       </c>
       <c r="G100" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="H100" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8451,10 +8418,10 @@
         <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H101" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8477,10 +8444,10 @@
         <v>1342</v>
       </c>
       <c r="G102" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="H102" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8503,10 +8470,10 @@
         <v>1339</v>
       </c>
       <c r="G103" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="H103" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8529,10 +8496,10 @@
         <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="H104" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8558,7 +8525,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8581,10 +8548,10 @@
         <v>1382</v>
       </c>
       <c r="G106" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="H106" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8607,10 +8574,10 @@
         <v>1370</v>
       </c>
       <c r="G107" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="H107" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8633,10 +8600,10 @@
         <v>1383</v>
       </c>
       <c r="G108" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="H108" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8656,10 +8623,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H109" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8682,10 +8649,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="H110" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8708,10 +8675,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="H111" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8734,10 +8701,10 @@
         <v>1276</v>
       </c>
       <c r="G112" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="H112" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8763,7 +8730,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8789,7 +8756,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8812,10 +8779,10 @@
         <v>1384</v>
       </c>
       <c r="G115" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="H115" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8838,10 +8805,10 @@
         <v>1385</v>
       </c>
       <c r="G116" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H116" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8864,10 +8831,10 @@
         <v>1386</v>
       </c>
       <c r="G117" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H117" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8890,10 +8857,10 @@
         <v>1387</v>
       </c>
       <c r="G118" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="H118" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8916,10 +8883,10 @@
         <v>1358</v>
       </c>
       <c r="G119" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="H119" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8945,7 +8912,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8971,7 +8938,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8997,7 +8964,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9023,7 +8990,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9046,10 +9013,10 @@
         <v>1380</v>
       </c>
       <c r="G124" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="H124" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9072,10 +9039,10 @@
         <v>1278</v>
       </c>
       <c r="G125" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="H125" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9101,7 +9068,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9124,10 +9091,10 @@
         <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H127" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9150,10 +9117,10 @@
         <v>1375</v>
       </c>
       <c r="G128" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H128" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9176,10 +9143,10 @@
         <v>1388</v>
       </c>
       <c r="G129" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="H129" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9199,13 +9166,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G130" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="H130" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9228,10 +9195,10 @@
         <v>1339</v>
       </c>
       <c r="G131" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="H131" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9254,10 +9221,10 @@
         <v>1338</v>
       </c>
       <c r="G132" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="H132" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9280,10 +9247,10 @@
         <v>1389</v>
       </c>
       <c r="G133" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="H133" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9306,10 +9273,10 @@
         <v>1369</v>
       </c>
       <c r="G134" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="H134" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9335,7 +9302,7 @@
         <v>1065</v>
       </c>
       <c r="H135" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9355,13 +9322,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G136" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H136" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9381,13 +9348,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G137" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="H137" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9410,10 +9377,10 @@
         <v>1342</v>
       </c>
       <c r="G138" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="H138" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9436,10 +9403,10 @@
         <v>1390</v>
       </c>
       <c r="G139" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="H139" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9459,13 +9426,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G140" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="H140" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9491,7 +9458,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9514,10 +9481,10 @@
         <v>1391</v>
       </c>
       <c r="G142" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="H142" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9540,10 +9507,10 @@
         <v>1375</v>
       </c>
       <c r="G143" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H143" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9566,10 +9533,10 @@
         <v>1278</v>
       </c>
       <c r="G144" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="H144" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9595,7 +9562,7 @@
         <v>989</v>
       </c>
       <c r="H145" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9618,10 +9585,10 @@
         <v>1379</v>
       </c>
       <c r="G146" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="H146" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9647,7 +9614,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9670,10 +9637,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="H148" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9692,14 +9659,8 @@
       <c r="E149" t="s">
         <v>1277</v>
       </c>
-      <c r="F149" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1587</v>
-      </c>
       <c r="H149" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9722,10 +9683,10 @@
         <v>1392</v>
       </c>
       <c r="G150" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="H150" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9751,7 +9712,7 @@
         <v>996</v>
       </c>
       <c r="H151" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9771,13 +9732,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1339</v>
+        <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="H152" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9800,10 +9761,10 @@
         <v>1393</v>
       </c>
       <c r="G153" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="H153" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9826,10 +9787,10 @@
         <v>1394</v>
       </c>
       <c r="G154" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="H154" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9849,13 +9810,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="H155" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9878,10 +9839,10 @@
         <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="H156" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9904,10 +9865,10 @@
         <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H157" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9930,10 +9891,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H158" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9956,10 +9917,10 @@
         <v>1369</v>
       </c>
       <c r="G159" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="H159" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9982,10 +9943,10 @@
         <v>1395</v>
       </c>
       <c r="G160" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="H160" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10011,7 +9972,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10034,10 +9995,10 @@
         <v>1361</v>
       </c>
       <c r="G162" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="H162" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10063,7 +10024,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10086,10 +10047,10 @@
         <v>1338</v>
       </c>
       <c r="G164" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="H164" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10112,10 +10073,10 @@
         <v>1380</v>
       </c>
       <c r="G165" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="H165" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10138,10 +10099,10 @@
         <v>1396</v>
       </c>
       <c r="G166" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="H166" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10164,10 +10125,10 @@
         <v>1339</v>
       </c>
       <c r="G167" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="H167" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10190,10 +10151,10 @@
         <v>1397</v>
       </c>
       <c r="G168" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="H168" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10216,10 +10177,10 @@
         <v>1398</v>
       </c>
       <c r="G169" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="H169" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10242,10 +10203,10 @@
         <v>1399</v>
       </c>
       <c r="G170" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="H170" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10268,10 +10229,10 @@
         <v>1361</v>
       </c>
       <c r="G171" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="H171" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10294,10 +10255,10 @@
         <v>1285</v>
       </c>
       <c r="G172" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="H172" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10320,10 +10281,10 @@
         <v>1339</v>
       </c>
       <c r="G173" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="H173" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10346,10 +10307,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1607</v>
+        <v>1585</v>
       </c>
       <c r="H174" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10372,10 +10333,10 @@
         <v>1400</v>
       </c>
       <c r="G175" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="H175" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10398,10 +10359,10 @@
         <v>1294</v>
       </c>
       <c r="G176" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H176" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10421,13 +10382,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="G177" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="H177" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10447,13 +10408,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G178" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="H178" t="s">
-        <v>1807</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10473,13 +10434,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G179" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="H179" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10499,13 +10460,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G180" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="H180" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10528,10 +10489,10 @@
         <v>1339</v>
       </c>
       <c r="G181" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="H181" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10557,7 +10518,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10580,10 +10541,10 @@
         <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H183" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10603,13 +10564,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="H184" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10629,13 +10590,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G185" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H185" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10658,10 +10619,10 @@
         <v>1369</v>
       </c>
       <c r="G186" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="H186" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10684,10 +10645,10 @@
         <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="H187" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10713,7 +10674,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10733,13 +10694,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G189" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="H189" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10765,7 +10726,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10788,10 +10749,10 @@
         <v>1369</v>
       </c>
       <c r="G191" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="H191" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10814,10 +10775,10 @@
         <v>1371</v>
       </c>
       <c r="G192" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="H192" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10837,13 +10798,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G193" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="H193" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10866,10 +10827,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="H194" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10895,7 +10856,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10918,10 +10879,10 @@
         <v>1369</v>
       </c>
       <c r="G196" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="H196" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10947,7 +10908,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10970,10 +10931,10 @@
         <v>1276</v>
       </c>
       <c r="G198" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="H198" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10993,13 +10954,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="H199" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11019,13 +10980,13 @@
         <v>1278</v>
       </c>
       <c r="F200" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G200" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H200" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11045,13 +11006,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="G201" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="H201" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11071,13 +11032,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G202" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="H202" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11097,13 +11058,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="G203" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="H203" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11123,13 +11084,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G204" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="H204" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11152,10 +11113,10 @@
         <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="H205" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11175,13 +11136,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G206" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="H206" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11207,7 +11168,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11227,13 +11188,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G208" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="H208" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11259,7 +11220,7 @@
         <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11282,10 +11243,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="H210" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11305,13 +11266,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G211" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="H211" t="s">
-        <v>1808</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11334,10 +11295,10 @@
         <v>1375</v>
       </c>
       <c r="G212" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="H212" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11360,10 +11321,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H213" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11383,13 +11344,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G214" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="H214" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11409,13 +11370,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G215" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="H215" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11441,7 +11402,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11461,13 +11422,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G217" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="H217" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11487,13 +11448,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G218" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="H218" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11516,10 +11477,10 @@
         <v>1278</v>
       </c>
       <c r="G219" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="H219" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11539,13 +11500,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G220" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="H220" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11571,7 +11532,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11591,13 +11552,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G222" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="H222" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11617,13 +11578,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G223" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="H223" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11643,13 +11604,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G224" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="H224" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11675,7 +11636,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11701,7 +11662,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11727,7 +11688,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11750,10 +11711,10 @@
         <v>1361</v>
       </c>
       <c r="G228" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="H228" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11773,13 +11734,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G229" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="H229" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11802,10 +11763,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H230" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11831,7 +11792,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11854,10 +11815,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="H232" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11880,10 +11841,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H233" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11903,13 +11864,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G234" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="H234" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11929,13 +11890,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G235" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="H235" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11955,13 +11916,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G236" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="H236" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11984,10 +11945,10 @@
         <v>1367</v>
       </c>
       <c r="G237" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="H237" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12007,13 +11968,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G238" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="H238" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12036,10 +11997,10 @@
         <v>1339</v>
       </c>
       <c r="G239" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="H239" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12059,13 +12020,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G240" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="H240" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12088,10 +12049,10 @@
         <v>1276</v>
       </c>
       <c r="G241" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H241" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12114,10 +12075,10 @@
         <v>1375</v>
       </c>
       <c r="G242" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H242" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12137,13 +12098,13 @@
         <v>1276</v>
       </c>
       <c r="F243" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G243" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="H243" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12163,13 +12124,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1424</v>
+        <v>1398</v>
       </c>
       <c r="G244" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="H244" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12192,10 +12153,10 @@
         <v>1371</v>
       </c>
       <c r="G245" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="H245" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12221,7 +12182,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12241,13 +12202,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="G247" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="H247" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12273,7 +12234,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12293,13 +12254,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="G249" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="H249" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12319,13 +12280,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G250" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="H250" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12345,13 +12306,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="G251" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="H251" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12371,13 +12332,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="G252" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="H252" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12397,13 +12358,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G253" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="H253" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12429,7 +12390,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12452,10 +12413,10 @@
         <v>1375</v>
       </c>
       <c r="G255" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="H255" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12478,10 +12439,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H256" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12504,10 +12465,10 @@
         <v>1342</v>
       </c>
       <c r="G257" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H257" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12527,13 +12488,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1343</v>
+        <v>1285</v>
       </c>
       <c r="G258" t="s">
-        <v>1662</v>
+        <v>1503</v>
       </c>
       <c r="H258" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12559,7 +12520,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12582,10 +12543,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H260" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12605,13 +12566,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="G261" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="H261" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12637,7 +12598,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12657,13 +12618,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="G263" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="H263" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12683,13 +12644,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G264" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="H264" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12709,13 +12670,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="G265" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="H265" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12738,10 +12699,10 @@
         <v>1399</v>
       </c>
       <c r="G266" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="H266" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12761,13 +12722,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="G267" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="H267" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12790,10 +12751,10 @@
         <v>1399</v>
       </c>
       <c r="G268" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="H268" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12816,10 +12777,10 @@
         <v>1375</v>
       </c>
       <c r="G269" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="H269" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12845,7 +12806,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12865,13 +12826,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="G271" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="H271" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12894,10 +12855,10 @@
         <v>1285</v>
       </c>
       <c r="G272" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H272" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12920,10 +12881,10 @@
         <v>1396</v>
       </c>
       <c r="G273" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="H273" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12943,13 +12904,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G274" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="H274" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12969,13 +12930,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="G275" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="H275" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12995,13 +12956,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="G276" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="H276" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13024,10 +12985,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H277" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13047,13 +13008,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="G278" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="H278" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13073,13 +13034,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G279" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="H279" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13099,13 +13060,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1348</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1678</v>
+        <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13128,7 +13089,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13148,13 +13109,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="G282" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="H282" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13180,7 +13141,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13200,13 +13161,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="G284" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="H284" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13226,13 +13187,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
       <c r="G285" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="H285" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13252,13 +13213,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G286" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="H286" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13278,13 +13239,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G287" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
       <c r="H287" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13307,10 +13268,10 @@
         <v>1294</v>
       </c>
       <c r="G288" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H288" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13333,10 +13294,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="H289" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13356,13 +13317,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="G290" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="H290" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13382,13 +13343,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G291" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="H291" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13408,13 +13369,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G292" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
       <c r="H292" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13434,13 +13395,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G293" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="H293" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13463,10 +13424,10 @@
         <v>1369</v>
       </c>
       <c r="G294" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="H294" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13492,7 +13453,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13515,10 +13476,10 @@
         <v>1375</v>
       </c>
       <c r="G296" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H296" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13541,10 +13502,10 @@
         <v>1276</v>
       </c>
       <c r="G297" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H297" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13567,10 +13528,10 @@
         <v>1369</v>
       </c>
       <c r="G298" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="H298" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13590,13 +13551,13 @@
         <v>1276</v>
       </c>
       <c r="F299" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G299" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="H299" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13616,13 +13577,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1424</v>
+        <v>1398</v>
       </c>
       <c r="G300" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="H300" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13645,10 +13606,10 @@
         <v>1378</v>
       </c>
       <c r="G301" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="H301" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13671,10 +13632,10 @@
         <v>1396</v>
       </c>
       <c r="G302" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="H302" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13700,7 +13661,7 @@
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13726,7 +13687,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13752,7 +13713,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13772,13 +13733,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G306" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="H306" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13804,7 +13765,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13827,10 +13788,10 @@
         <v>1380</v>
       </c>
       <c r="G308" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="H308" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13856,7 +13817,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13882,7 +13843,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13908,7 +13869,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13931,10 +13892,10 @@
         <v>1369</v>
       </c>
       <c r="G312" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="H312" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13954,13 +13915,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1375</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1695</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13986,7 +13947,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14009,10 +13970,10 @@
         <v>1374</v>
       </c>
       <c r="G315" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="H315" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14032,13 +13993,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1422</v>
+        <v>1443</v>
       </c>
       <c r="G316" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="H316" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14061,10 +14022,10 @@
         <v>1375</v>
       </c>
       <c r="G317" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H317" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14087,10 +14048,10 @@
         <v>1342</v>
       </c>
       <c r="G318" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H318" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14109,8 +14070,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14130,13 +14097,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G320" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="H320" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14159,10 +14126,10 @@
         <v>1369</v>
       </c>
       <c r="G321" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="H321" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14185,10 +14152,10 @@
         <v>1361</v>
       </c>
       <c r="G322" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="H322" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14211,10 +14178,10 @@
         <v>1367</v>
       </c>
       <c r="G323" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="H323" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14237,10 +14204,10 @@
         <v>1396</v>
       </c>
       <c r="G324" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="H324" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14266,7 +14233,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14292,7 +14259,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14312,13 +14279,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G327" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="H327" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14341,10 +14308,10 @@
         <v>1361</v>
       </c>
       <c r="G328" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="H328" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14367,10 +14334,10 @@
         <v>1369</v>
       </c>
       <c r="G329" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="H329" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14393,10 +14360,10 @@
         <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H330" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14416,13 +14383,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G331" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H331" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14445,10 +14412,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H332" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14471,10 +14438,10 @@
         <v>1370</v>
       </c>
       <c r="G333" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="H333" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14497,10 +14464,10 @@
         <v>1278</v>
       </c>
       <c r="G334" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="H334" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14523,10 +14490,10 @@
         <v>1357</v>
       </c>
       <c r="G335" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="H335" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14546,13 +14513,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="G336" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="H336" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14575,10 +14542,10 @@
         <v>1371</v>
       </c>
       <c r="G337" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="H337" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14598,13 +14565,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G338" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="H338" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14624,13 +14591,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G339" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="H339" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14653,10 +14620,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="H340" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14676,13 +14643,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G341" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="H341" t="s">
-        <v>1812</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14702,13 +14669,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G342" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H342" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14728,13 +14695,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G343" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="H343" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14754,13 +14721,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G344" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="H344" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14780,13 +14747,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="G345" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="H345" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14806,13 +14773,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G346" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="H346" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14835,10 +14802,10 @@
         <v>1340</v>
       </c>
       <c r="G347" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="H347" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14864,7 +14831,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14890,7 +14857,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14910,13 +14877,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G350" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H350" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14936,13 +14903,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G351" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="H351" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14962,13 +14929,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="G352" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="H352" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14994,7 +14961,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15014,13 +14981,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1424</v>
+        <v>1276</v>
       </c>
       <c r="G354" t="s">
-        <v>1721</v>
+        <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15043,10 +15010,10 @@
         <v>1278</v>
       </c>
       <c r="G355" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="H355" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15072,7 +15039,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15092,13 +15059,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G357" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
       <c r="H357" t="s">
-        <v>1813</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15118,13 +15085,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G358" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H358" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15147,10 +15114,10 @@
         <v>1278</v>
       </c>
       <c r="G359" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="H359" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15176,7 +15143,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15196,13 +15163,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="G361" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H361" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15225,10 +15192,10 @@
         <v>1285</v>
       </c>
       <c r="G362" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="H362" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15248,13 +15215,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G363" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="H363" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15274,13 +15241,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G364" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="H364" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15303,10 +15270,10 @@
         <v>1357</v>
       </c>
       <c r="G365" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="H365" t="s">
-        <v>1814</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15329,10 +15296,10 @@
         <v>1369</v>
       </c>
       <c r="G366" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="H366" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15355,10 +15322,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="H367" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15378,13 +15345,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="G368" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="H368" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15407,10 +15374,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H369" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15429,14 +15396,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1587</v>
-      </c>
       <c r="H370" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15459,10 +15420,10 @@
         <v>1396</v>
       </c>
       <c r="G371" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="H371" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15485,10 +15446,10 @@
         <v>1378</v>
       </c>
       <c r="G372" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="H372" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15508,13 +15469,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1456</v>
+        <v>1402</v>
       </c>
       <c r="G373" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="H373" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15534,7 +15495,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15560,7 +15521,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15580,13 +15541,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G376" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="H376" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15606,13 +15567,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G377" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="H377" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15632,13 +15593,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1396</v>
+        <v>1440</v>
       </c>
       <c r="G378" t="s">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="H378" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15658,13 +15619,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G379" t="s">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="H379" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15687,10 +15648,10 @@
         <v>1369</v>
       </c>
       <c r="G380" t="s">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="H380" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15713,10 +15674,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H381" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15736,13 +15697,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="G382" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="H382" t="s">
-        <v>1815</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15762,13 +15723,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G383" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="H383" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15788,13 +15749,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="G384" t="s">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="H384" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15817,10 +15778,10 @@
         <v>1396</v>
       </c>
       <c r="G385" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="H385" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15840,13 +15801,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G386" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="H386" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15872,7 +15833,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15895,10 +15856,10 @@
         <v>1369</v>
       </c>
       <c r="G388" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="H388" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15921,10 +15882,10 @@
         <v>1369</v>
       </c>
       <c r="G389" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="H389" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15947,10 +15908,10 @@
         <v>1380</v>
       </c>
       <c r="G390" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="H390" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15973,10 +15934,10 @@
         <v>1342</v>
       </c>
       <c r="G391" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="H391" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15999,10 +15960,10 @@
         <v>1369</v>
       </c>
       <c r="G392" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="H392" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16022,13 +15983,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G393" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="H393" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16048,13 +16009,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G394" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H394" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16074,13 +16035,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="G395" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="H395" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16100,13 +16061,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="G396" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="H396" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16126,13 +16087,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="G397" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="H397" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16158,7 +16119,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16178,13 +16139,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="G399" t="s">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="H399" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16204,13 +16165,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="G400" t="s">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="H400" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16236,7 +16197,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16262,7 +16223,7 @@
         <v>1227</v>
       </c>
       <c r="H402" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16285,10 +16246,10 @@
         <v>1371</v>
       </c>
       <c r="G403" t="s">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="H403" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16311,10 +16272,10 @@
         <v>1339</v>
       </c>
       <c r="G404" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="H404" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16334,13 +16295,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G405" t="s">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="H405" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16366,7 +16327,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16386,13 +16347,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="G407" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="H407" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16415,10 +16376,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="H408" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16444,7 +16405,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16470,7 +16431,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16490,13 +16451,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="G411" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="H411" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16519,10 +16480,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H412" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16545,10 +16506,10 @@
         <v>1396</v>
       </c>
       <c r="G413" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="H413" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16568,13 +16529,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G414" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="H414" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16597,10 +16558,10 @@
         <v>1380</v>
       </c>
       <c r="G415" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="H415" t="s">
-        <v>1817</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16620,13 +16581,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="G416" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="H416" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16649,10 +16610,10 @@
         <v>1294</v>
       </c>
       <c r="G417" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H417" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16675,10 +16636,10 @@
         <v>1338</v>
       </c>
       <c r="G418" t="s">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="H418" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16701,10 +16662,10 @@
         <v>1396</v>
       </c>
       <c r="G419" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="H419" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16727,10 +16688,10 @@
         <v>1338</v>
       </c>
       <c r="G420" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="H420" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16750,13 +16711,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="G421" t="s">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="H421" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16779,10 +16740,10 @@
         <v>1396</v>
       </c>
       <c r="G422" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="H422" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16808,7 +16769,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16834,7 +16795,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16854,13 +16815,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G425" t="s">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="H425" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16880,13 +16841,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G426" t="s">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="H426" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16905,14 +16866,11 @@
       <c r="E427" t="s">
         <v>1285</v>
       </c>
-      <c r="F427" t="s">
-        <v>1470</v>
-      </c>
       <c r="G427" t="s">
-        <v>1761</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16935,10 +16893,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H428" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16961,10 +16919,10 @@
         <v>1276</v>
       </c>
       <c r="G429" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H429" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16987,10 +16945,10 @@
         <v>1339</v>
       </c>
       <c r="G430" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="H430" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17013,10 +16971,10 @@
         <v>1369</v>
       </c>
       <c r="G431" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="H431" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17042,7 +17000,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17062,13 +17020,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="G433" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="H433" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17091,10 +17049,10 @@
         <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="H434" t="s">
-        <v>1814</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17114,13 +17072,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="G435" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="H435" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17146,7 +17104,7 @@
         <v>947</v>
       </c>
       <c r="H436" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17169,10 +17127,10 @@
         <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H437" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17198,7 +17156,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17221,10 +17179,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="H439" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17244,13 +17202,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G440" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="H440" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17270,13 +17228,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="G441" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="H441" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17299,10 +17257,10 @@
         <v>1358</v>
       </c>
       <c r="G442" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="H442" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17322,13 +17280,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1456</v>
+        <v>1471</v>
       </c>
       <c r="G443" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="H443" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17348,13 +17306,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G444" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
       <c r="H444" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17374,13 +17332,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="G445" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
       <c r="H445" t="s">
-        <v>1819</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17400,13 +17358,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1463</v>
+        <v>1352</v>
       </c>
       <c r="G446" t="s">
-        <v>1774</v>
+        <v>1535</v>
       </c>
       <c r="H446" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17429,10 +17387,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
       <c r="H447" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17452,13 +17410,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G448" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
       <c r="H448" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17478,13 +17436,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="G449" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
       <c r="H449" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17507,10 +17465,10 @@
         <v>1339</v>
       </c>
       <c r="G450" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="H450" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17530,13 +17488,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G451" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H451" t="s">
         <v>1778</v>
-      </c>
-      <c r="H451" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17562,7 +17520,7 @@
         <v>1000</v>
       </c>
       <c r="H452" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17582,13 +17540,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="G453" t="s">
-        <v>1779</v>
+        <v>1768</v>
       </c>
       <c r="H453" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17608,13 +17566,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="G454" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="H454" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17634,13 +17592,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="G455" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
       <c r="H455" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17660,13 +17618,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="G456" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
       <c r="H456" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17689,10 +17647,10 @@
         <v>1339</v>
       </c>
       <c r="G457" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
       <c r="H457" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17718,7 +17676,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1820</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17741,10 +17699,10 @@
         <v>1357</v>
       </c>
       <c r="G459" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
       <c r="H459" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17770,7 +17728,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17790,13 +17748,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G461" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
       <c r="H461" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17822,7 +17780,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17845,10 +17803,10 @@
         <v>1380</v>
       </c>
       <c r="G463" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="H463" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
   </sheetData>
